--- a/Client/Assets/Excel/BattleOption.xlsx
+++ b/Client/Assets/Excel/BattleOption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A618443-C01E-4568-BBEA-9CB1114D1403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB6498-0405-41F0-8C0B-DF6B1A314DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Option" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="138">
   <si>
     <t>int</t>
   </si>
@@ -571,6 +571,10 @@
   <si>
     <t>버프 사이드 설명 텍스트
 - GameText ID 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEM 캐릭터 테스트 스킬 옵션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1027,13 +1031,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,19 +1252,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1549,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1740,10 +1874,18 @@
       <c r="M4" s="10">
         <v>0</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
       <c r="R4" s="6">
         <v>0</v>
       </c>
@@ -1771,10 +1913,18 @@
       <c r="Z4" s="6">
         <v>0</v>
       </c>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -1817,10 +1967,18 @@
       <c r="M5" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
       <c r="R5" s="6">
         <v>0</v>
       </c>
@@ -1848,10 +2006,18 @@
       <c r="Z5" s="6">
         <v>0</v>
       </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -1894,10 +2060,18 @@
       <c r="M6" s="10">
         <v>0</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
       <c r="R6" s="6">
         <v>0</v>
       </c>
@@ -1925,10 +2099,18 @@
       <c r="Z6" s="6">
         <v>0</v>
       </c>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="AA6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25">
@@ -1971,10 +2153,18 @@
       <c r="M7" s="26">
         <v>0</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0</v>
+      </c>
       <c r="R7" s="25" t="s">
         <v>53</v>
       </c>
@@ -2002,10 +2192,18 @@
       <c r="Z7" s="25">
         <v>0.1</v>
       </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
+      <c r="AA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
@@ -2048,10 +2246,18 @@
       <c r="M8" s="38">
         <v>0</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
+      <c r="N8" s="38">
+        <v>0</v>
+      </c>
+      <c r="O8" s="38">
+        <v>0</v>
+      </c>
+      <c r="P8" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="38">
+        <v>0</v>
+      </c>
       <c r="R8" s="29">
         <v>0</v>
       </c>
@@ -2079,10 +2285,18 @@
       <c r="Z8" s="38">
         <v>0</v>
       </c>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
+      <c r="AA8" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
@@ -2125,10 +2339,18 @@
       <c r="M9" s="10">
         <v>0</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
       <c r="R9" s="6">
         <v>0</v>
       </c>
@@ -2156,10 +2378,18 @@
       <c r="Z9" s="10">
         <v>0</v>
       </c>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
+      <c r="AA9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
@@ -2202,10 +2432,18 @@
       <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
       <c r="R10" s="6">
         <v>0</v>
       </c>
@@ -2233,10 +2471,18 @@
       <c r="Z10" s="10">
         <v>0</v>
       </c>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
+      <c r="AA10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
@@ -2279,10 +2525,18 @@
       <c r="M11" s="35">
         <v>0</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="N11" s="35">
+        <v>0</v>
+      </c>
+      <c r="O11" s="35">
+        <v>0</v>
+      </c>
+      <c r="P11" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>0</v>
+      </c>
       <c r="R11" s="34" t="s">
         <v>92</v>
       </c>
@@ -2310,10 +2564,18 @@
       <c r="Z11" s="35">
         <v>0</v>
       </c>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
+      <c r="AA11" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -2395,10 +2657,18 @@
       <c r="Z12" s="38">
         <v>0</v>
       </c>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
+      <c r="AA12" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
@@ -2441,10 +2711,18 @@
       <c r="M13" s="10">
         <v>0.05</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
       <c r="R13" s="6">
         <v>0</v>
       </c>
@@ -2472,17 +2750,25 @@
       <c r="Z13" s="10">
         <v>0</v>
       </c>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
+      <c r="AA13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>5020002</v>
       </c>
       <c r="B14" s="6">
-        <f t="shared" ref="B14:B23" si="2">B13+1</f>
+        <f t="shared" ref="B14:B24" si="2">B13+1</f>
         <v>5021007</v>
       </c>
       <c r="C14" s="6">
@@ -2518,10 +2804,18 @@
       <c r="M14" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
       <c r="R14" s="6">
         <v>0</v>
       </c>
@@ -2549,10 +2843,18 @@
       <c r="Z14" s="10">
         <v>0</v>
       </c>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
+      <c r="AA14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
@@ -2595,10 +2897,18 @@
       <c r="M15" s="35">
         <v>0.1</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="N15" s="35">
+        <v>0</v>
+      </c>
+      <c r="O15" s="35">
+        <v>0</v>
+      </c>
+      <c r="P15" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="35">
+        <v>0</v>
+      </c>
       <c r="R15" s="34" t="s">
         <v>92</v>
       </c>
@@ -2680,10 +2990,18 @@
       <c r="M16" s="38">
         <v>0</v>
       </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="N16" s="38">
+        <v>0</v>
+      </c>
+      <c r="O16" s="38">
+        <v>0</v>
+      </c>
+      <c r="P16" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="38">
+        <v>0</v>
+      </c>
       <c r="R16" s="29">
         <v>0</v>
       </c>
@@ -2711,10 +3029,18 @@
       <c r="Z16" s="38">
         <v>0</v>
       </c>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
+      <c r="AA16" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
@@ -2757,10 +3083,18 @@
       <c r="M17" s="10">
         <v>0</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
       <c r="R17" s="6">
         <v>0</v>
       </c>
@@ -2788,10 +3122,18 @@
       <c r="Z17" s="10">
         <v>0</v>
       </c>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
+      <c r="AA17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
@@ -2834,10 +3176,18 @@
       <c r="M18" s="10">
         <v>0</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0</v>
+      </c>
       <c r="R18" s="6">
         <v>0</v>
       </c>
@@ -2865,10 +3215,18 @@
       <c r="Z18" s="10">
         <v>0</v>
       </c>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
+      <c r="AA18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33">
@@ -2911,10 +3269,18 @@
       <c r="M19" s="35">
         <v>0</v>
       </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="N19" s="35">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>0</v>
+      </c>
       <c r="R19" s="34" t="s">
         <v>92</v>
       </c>
@@ -2942,10 +3308,18 @@
       <c r="Z19" s="35">
         <v>0</v>
       </c>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
+      <c r="AA19" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
@@ -3027,10 +3401,18 @@
       <c r="Z20" s="38">
         <v>0</v>
       </c>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
+      <c r="AA20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
@@ -3073,10 +3455,18 @@
       <c r="M21" s="10">
         <v>0.05</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>0</v>
+      </c>
       <c r="R21" s="6">
         <v>0</v>
       </c>
@@ -3104,10 +3494,18 @@
       <c r="Z21" s="10">
         <v>0</v>
       </c>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
+      <c r="AA21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
@@ -3150,10 +3548,18 @@
       <c r="M22" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0</v>
+      </c>
       <c r="R22" s="6">
         <v>0</v>
       </c>
@@ -3181,145 +3587,269 @@
       <c r="Z22" s="10">
         <v>0</v>
       </c>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
+      <c r="AA22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33">
+      <c r="A23" s="40">
         <v>5020004</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="25">
         <f t="shared" si="2"/>
         <v>5021016</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="25">
         <v>7011001</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="25">
         <v>2</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="25">
         <v>4</v>
       </c>
-      <c r="H23" s="34">
-        <v>0</v>
-      </c>
-      <c r="I23" s="34">
+      <c r="H23" s="25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
         <v>1</v>
       </c>
-      <c r="J23" s="34">
-        <v>0</v>
-      </c>
-      <c r="K23" s="35">
-        <v>0</v>
-      </c>
-      <c r="L23" s="34">
-        <v>0</v>
-      </c>
-      <c r="M23" s="35">
+      <c r="J23" s="25">
+        <v>0</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0</v>
+      </c>
+      <c r="M23" s="26">
         <v>0.1</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="34" t="s">
+      <c r="N23" s="26">
+        <v>0</v>
+      </c>
+      <c r="O23" s="26">
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>0</v>
+      </c>
+      <c r="R23" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="S23" s="36">
+      <c r="S23" s="27">
         <v>1</v>
       </c>
-      <c r="T23" s="34">
+      <c r="T23" s="25">
         <v>3</v>
       </c>
-      <c r="U23" s="34">
+      <c r="U23" s="25">
         <v>1</v>
       </c>
-      <c r="V23" s="34">
-        <v>0</v>
-      </c>
-      <c r="W23" s="34">
-        <v>0</v>
-      </c>
-      <c r="X23" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="34">
+      <c r="V23" s="25">
+        <v>0</v>
+      </c>
+      <c r="W23" s="25">
+        <v>0</v>
+      </c>
+      <c r="X23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="25">
         <v>-5</v>
       </c>
-      <c r="Z23" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="35" t="s">
+      <c r="Z23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="AB23" s="35" t="s">
+      <c r="AB23" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="AC23" s="37" t="s">
+      <c r="AC23" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="AD23" s="37" t="s">
+      <c r="AD23" s="41" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="47" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="42">
+        <v>5120001</v>
+      </c>
+      <c r="B24" s="43">
+        <f>A24+1000</f>
+        <v>5121001</v>
+      </c>
+      <c r="C24" s="43">
+        <v>7011001</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="43">
+        <v>0</v>
+      </c>
+      <c r="G24" s="43">
+        <v>0</v>
+      </c>
+      <c r="H24" s="43">
+        <v>0</v>
+      </c>
+      <c r="I24" s="43">
+        <v>0</v>
+      </c>
+      <c r="J24" s="43">
+        <v>0</v>
+      </c>
+      <c r="K24" s="44">
+        <v>0</v>
+      </c>
+      <c r="L24" s="43">
+        <v>15</v>
+      </c>
+      <c r="M24" s="44">
+        <v>0</v>
+      </c>
+      <c r="N24" s="44">
+        <v>0</v>
+      </c>
+      <c r="O24" s="44">
+        <v>0</v>
+      </c>
+      <c r="P24" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="44">
+        <v>0</v>
+      </c>
+      <c r="R24" s="43">
+        <v>0</v>
+      </c>
+      <c r="S24" s="45">
+        <v>0</v>
+      </c>
+      <c r="T24" s="43">
+        <v>0</v>
+      </c>
+      <c r="U24" s="43">
+        <v>0</v>
+      </c>
+      <c r="V24" s="43">
+        <v>0</v>
+      </c>
+      <c r="W24" s="43">
+        <v>0</v>
+      </c>
+      <c r="X24" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="43">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="44">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="44">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="46">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:C7 B8:E8 A8:A23">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+  <conditionalFormatting sqref="A4:C7 B8:E8 A8:A24">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:D23">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 D5:D7 M7:V7">
-    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:AD7">
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:AD23">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:AD11">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:Q11">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:Q19">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:Q11">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+  <conditionalFormatting sqref="R9:V11 R17:V19">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:Q19">
+  <conditionalFormatting sqref="B24:D24">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9:V11 R17:V19">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+  <conditionalFormatting sqref="F24:AD24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
